--- a/MyoContrac_TestList.xlsx
+++ b/MyoContrac_TestList.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/murrayla/Documents/main_PhD/Project_MyoContrac/MyoContract_TestFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/murrayla/Documents/main_PhD/Project_MyoContrac/MyoContract_GitHub/branching_model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84571459-362D-6A43-8CDE-896CF0F79112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2DC0C6-EF21-3342-BD35-91AD187A3973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30240" yWindow="2700" windowWidth="30240" windowHeight="18900" xr2:uid="{9BB99922-6CEB-9A43-9481-79849DD8F90B}"/>
+    <workbookView xWindow="3540" yWindow="500" windowWidth="27420" windowHeight="19440" xr2:uid="{9BB99922-6CEB-9A43-9481-79849DD8F90B}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Setup" sheetId="1" r:id="rId1"/>
     <sheet name="Sarcomere Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="56">
   <si>
     <t>Myofibril Geometries</t>
   </si>
@@ -202,6 +201,9 @@
   </si>
   <si>
     <t>Need average SR displacement.</t>
+  </si>
+  <si>
+    <t>Gap is too large?</t>
   </si>
 </sst>
 </file>
@@ -209,7 +211,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -242,7 +244,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -558,11 +560,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AAE4F59-2D91-2146-8197-16E3636F92CE}">
-  <dimension ref="A1:AA30"/>
+  <dimension ref="A1:AA33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N5" sqref="N5"/>
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -850,7 +852,7 @@
         <v>0.25</v>
       </c>
       <c r="M5">
-        <f t="shared" ref="M5:M20" si="4">S5/(PI() * G5 * L5)</f>
+        <f t="shared" ref="M5:M19" si="4">S5/(PI() * G5 * L5)</f>
         <v>0.5</v>
       </c>
       <c r="N5">
@@ -1640,7 +1642,7 @@
         <v>0.5</v>
       </c>
       <c r="K17">
-        <f t="shared" ref="K17:K20" si="8">2/3</f>
+        <f t="shared" ref="K17:K19" si="8">2/3</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="L17">
@@ -1871,6 +1873,11 @@
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="E30" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
